--- a/template/test-template.xlsx
+++ b/template/test-template.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A663BDD-E585-40F6-90AB-F3DBE12E03A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C589798-6B70-9F4A-8BF5-39C3C4E7960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L" sheetId="1" r:id="rId1"/>
     <sheet name="BS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t xml:space="preserve">Particulars </t>
   </si>
@@ -323,18 +334,19 @@
   </si>
   <si>
     <t>Other Current Assets</t>
+  </si>
+  <si>
+    <t>{{Add Provisional financial date in DD-MM-YYYY}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +358,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -418,31 +423,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor rgb="FFD6DCE4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -456,31 +443,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -491,30 +459,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,145 +476,88 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,21 +877,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.1640625" defaultRowHeight="25.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="1" max="1" width="57.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1065,9 +954,9 @@
       <c r="BH1" s="28"/>
       <c r="BI1" s="28"/>
     </row>
-    <row r="2" spans="1:61" s="2" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="33"/>
+    <row r="2" spans="1:61" s="2" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1128,9 +1017,9 @@
       <c r="BH2" s="28"/>
       <c r="BI2" s="28"/>
     </row>
-    <row r="3" spans="1:61" s="2" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
+    <row r="3" spans="1:61" s="2" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -1191,28 +1080,28 @@
       <c r="BH3" s="28"/>
       <c r="BI3" s="28"/>
     </row>
-    <row r="4" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1221,68 +1110,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -1291,10 +1180,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -1303,12 +1192,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
@@ -1317,12 +1206,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
@@ -1347,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>23</v>
       </c>
@@ -1356,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>26</v>
       </c>
@@ -1382,35 +1271,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
     </row>
-    <row r="42" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>32</v>
       </c>
@@ -1419,10 +1308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
     </row>
-    <row r="44" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>33</v>
       </c>
@@ -1430,38 +1319,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
     </row>
-    <row r="48" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
     </row>
-    <row r="52" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>39</v>
       </c>
@@ -1470,10 +1359,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
     </row>
-    <row r="54" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>40</v>
       </c>
@@ -1482,89 +1371,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BC3"/>
     <mergeCell ref="BI1:BI3"/>
     <mergeCell ref="BD1:BD3"/>
     <mergeCell ref="BE1:BE3"/>
     <mergeCell ref="BF1:BF3"/>
     <mergeCell ref="BG1:BG3"/>
     <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -1575,21 +1464,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BI77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="18" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
+    <row r="1" spans="1:61" s="18" customFormat="1" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>102</v>
+      </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1650,9 +1541,9 @@
       <c r="BH1" s="28"/>
       <c r="BI1" s="28"/>
     </row>
-    <row r="2" spans="1:61" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
+    <row r="2" spans="1:61" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1713,9 +1604,9 @@
       <c r="BH2" s="28"/>
       <c r="BI2" s="28"/>
     </row>
-    <row r="3" spans="1:61" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="37"/>
+    <row r="3" spans="1:61" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -1776,15 +1667,15 @@
       <c r="BH3" s="28"/>
       <c r="BI3" s="28"/>
     </row>
-    <row r="4" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
     </row>
-    <row r="6" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>46</v>
       </c>
@@ -1793,12 +1684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
@@ -1806,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>49</v>
       </c>
@@ -1815,73 +1706,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
     </row>
-    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
     </row>
-    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
         <v>62</v>
       </c>
@@ -1890,44 +1781,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
     </row>
-    <row r="27" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="26"/>
     </row>
-    <row r="30" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
     </row>
-    <row r="33" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>69</v>
       </c>
@@ -1936,32 +1827,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>75</v>
       </c>
@@ -1969,12 +1860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
         <v>77</v>
       </c>
@@ -1983,18 +1874,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
     </row>
-    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
     </row>
-    <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>79</v>
       </c>
@@ -2003,12 +1894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>81</v>
       </c>
@@ -2017,68 +1908,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20"/>
     </row>
-    <row r="61" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
         <v>93</v>
       </c>
@@ -2087,53 +1978,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
     </row>
-    <row r="71" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
     </row>
-    <row r="72" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
         <v>77</v>
       </c>
@@ -2142,78 +2033,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="25"/>
     </row>
-    <row r="76" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="27"/>
     </row>
-    <row r="77" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
-    <mergeCell ref="AK1:AK3"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="AP1:AP3"/>
-    <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BC3"/>
     <mergeCell ref="BI1:BI3"/>
     <mergeCell ref="BD1:BD3"/>
     <mergeCell ref="BE1:BE3"/>
     <mergeCell ref="BF1:BF3"/>
     <mergeCell ref="BG1:BG3"/>
     <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BC1:BC3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AO1:AO3"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AK1:AK3"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF1:AF3"/>
+    <mergeCell ref="AG1:AG3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="AC1:AC3"/>
+    <mergeCell ref="AD1:AD3"/>
+    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="V1:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
